--- a/KA_Data/Original_KA_Data/number_hire_marinas.xlsx
+++ b/KA_Data/Original_KA_Data/number_hire_marinas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1ACE0A-5EB8-4115-9D0B-B7D94CA341C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22D00B2-F8C8-436E-84D6-AC7C25F2AF77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78D5AA05-2575-4285-9D85-FEF2188D93F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78D5AA05-2575-4285-9D85-FEF2188D93F2}"/>
   </bookViews>
   <sheets>
     <sheet name="No. of boats" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="239">
   <si>
     <t>Hire names</t>
   </si>
@@ -163,9 +163,6 @@
     <t>http://www.newburymarina.com/holiday-narrowboat-hire.html</t>
   </si>
   <si>
-    <t>https://bruce.katrust.org.uk/</t>
-  </si>
-  <si>
     <t>https://www.moonboats.co.uk/our-boats</t>
   </si>
   <si>
@@ -743,6 +740,15 @@
   </si>
   <si>
     <t>Total 58</t>
+  </si>
+  <si>
+    <t>Dayhire</t>
+  </si>
+  <si>
+    <t>Allington</t>
+  </si>
+  <si>
+    <t>https://www.whitehorsenarrowboats.co.uk/dayhire-cruise-route/</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC122EE3-89C5-4E0A-B92C-FF7F8141C42B}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,25 +1153,28 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>236</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
         <v>63</v>
-      </c>
-      <c r="U1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1191,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
@@ -1200,10 +1209,10 @@
         <v>446</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -1233,7 +1242,7 @@
         <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
         <v>11</v>
@@ -1246,15 +1255,15 @@
         <v>20</v>
       </c>
       <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
         <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <f>SUM(D4:G4)</f>
@@ -1276,10 +1285,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -1288,7 +1297,7 @@
         <v>160</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1312,7 +1321,7 @@
         <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
         <v>1</v>
@@ -1321,10 +1330,10 @@
         <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1345,7 +1354,7 @@
         <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
         <v>13</v>
@@ -1354,10 +1363,10 @@
         <v>30</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -1375,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
         <v>2</v>
@@ -1390,7 +1399,7 @@
         <v>100</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1408,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
         <v>14</v>
@@ -1427,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="T8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1445,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="O9" t="s">
         <v>4</v>
@@ -1467,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1488,13 +1497,13 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" t="s">
         <v>15</v>
@@ -1503,7 +1512,7 @@
         <v>250</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1518,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O11" t="s">
         <v>7</v>
@@ -1530,10 +1539,10 @@
         <v>60</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1563,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12" t="s">
         <v>16</v>
@@ -1572,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1602,10 +1611,10 @@
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O13" t="s">
         <v>17</v>
@@ -1614,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1641,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
       </c>
       <c r="O14" t="s">
         <v>18</v>
@@ -1656,7 +1665,7 @@
         <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1677,22 +1686,22 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P15">
         <v>16</v>
       </c>
       <c r="U15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1710,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1731,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1752,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1776,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1794,13 +1803,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1815,13 +1824,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1836,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" t="s">
         <v>58</v>
-      </c>
-      <c r="K22" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1856,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCD3F9E-A6BE-46B1-87CF-3B8591B6FB4F}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,30 +1878,30 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1900,43 +1909,43 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>6.5</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" t="s">
         <v>103</v>
       </c>
-      <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" t="s">
         <v>105</v>
       </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1944,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1953,16 +1962,16 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
       <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
         <v>109</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1970,7 +1979,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1979,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -1990,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1999,37 +2008,37 @@
         <v>6.5</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
         <v>103</v>
       </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" t="s">
         <v>105</v>
-      </c>
-      <c r="O6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2037,16 +2046,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -2057,7 +2066,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2066,13 +2075,13 @@
         <v>5.5</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2080,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2089,16 +2098,16 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2106,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2115,13 +2124,13 @@
         <v>7.5</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2129,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2138,19 +2147,19 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
         <v>130</v>
       </c>
-      <c r="H11" t="s">
-        <v>131</v>
-      </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2158,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -2167,19 +2176,19 @@
         <v>6.5</v>
       </c>
       <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
         <v>132</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>134</v>
       </c>
-      <c r="H12" t="s">
-        <v>135</v>
-      </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2187,7 +2196,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -2196,16 +2205,16 @@
         <v>6.5</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2213,7 +2222,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -2222,16 +2231,16 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2239,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2248,10 +2257,10 @@
         <v>6.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2259,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2268,16 +2277,16 @@
         <v>5.5</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2285,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2294,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
@@ -2305,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -2314,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -2325,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2334,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
@@ -2350,101 +2359,101 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>144</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>145</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>146</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" t="s">
         <v>147</v>
       </c>
-      <c r="J21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>148</v>
       </c>
-      <c r="M21" t="s">
-        <v>149</v>
-      </c>
       <c r="N21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" t="s">
         <v>151</v>
       </c>
-      <c r="F22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>152</v>
       </c>
-      <c r="M22" t="s">
-        <v>153</v>
-      </c>
       <c r="N22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2453,30 +2462,30 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
         <v>154</v>
       </c>
-      <c r="F23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
         <v>155</v>
-      </c>
-      <c r="I23" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2485,144 +2494,129 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" t="s">
         <v>158</v>
-      </c>
-      <c r="F24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" t="s">
-        <v>148</v>
-      </c>
-      <c r="M24" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
         <v>160</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" t="s">
-        <v>169</v>
-      </c>
-      <c r="N26" t="s">
-        <v>170</v>
-      </c>
-      <c r="O26" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>171</v>
-      </c>
-      <c r="R26" t="s">
-        <v>126</v>
-      </c>
-      <c r="S26" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" t="s">
         <v>88</v>
       </c>
-      <c r="H28" t="s">
-        <v>174</v>
+      <c r="M28" t="s">
+        <v>168</v>
+      </c>
+      <c r="N28" t="s">
+        <v>169</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>170</v>
+      </c>
+      <c r="R28" t="s">
+        <v>125</v>
+      </c>
+      <c r="S28" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -2630,22 +2624,25 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" t="s">
         <v>133</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>87</v>
       </c>
-      <c r="H29" t="s">
-        <v>89</v>
+      <c r="I29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -2653,16 +2650,22 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
         <v>87</v>
       </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
+      <c r="H30" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -2670,16 +2673,22 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2687,16 +2696,16 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>178</v>
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2706,78 +2715,48 @@
       <c r="B33" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>180</v>
+      <c r="C33">
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
+        <v>127</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34" t="s">
-        <v>90</v>
-      </c>
-      <c r="L34" t="s">
-        <v>185</v>
-      </c>
-      <c r="M34" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -2785,22 +2764,40 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>5.5</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
       </c>
       <c r="F36" t="s">
         <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="H36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" t="s">
+        <v>184</v>
+      </c>
+      <c r="M36" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2811,28 +2808,19 @@
         <v>125</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J37" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2840,25 +2828,22 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>194</v>
+        <v>5.5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2866,22 +2851,31 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>88</v>
+        <v>189</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2889,357 +2883,366 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
       </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>197</v>
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>201</v>
+        <v>86</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>202</v>
-      </c>
-      <c r="G42" t="s">
-        <v>106</v>
-      </c>
-      <c r="H42" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F43" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="G43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>7.5</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="G44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
+      <c r="C45" t="s">
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" t="s">
         <v>203</v>
       </c>
-      <c r="D46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" t="s">
-        <v>53</v>
-      </c>
       <c r="F46" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>210</v>
+        <v>168</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
         <v>207</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" t="s">
-        <v>220</v>
-      </c>
-      <c r="H52" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" t="s">
-        <v>147</v>
-      </c>
-      <c r="J52" t="s">
-        <v>85</v>
-      </c>
-      <c r="K52" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>206</v>
-      </c>
-      <c r="H53" t="s">
-        <v>209</v>
-      </c>
-      <c r="I53" t="s">
-        <v>88</v>
-      </c>
-      <c r="J53" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" t="s">
-        <v>28</v>
+      <c r="I54" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
       </c>
+      <c r="G55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H55" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
@@ -3247,19 +3250,19 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="D57" t="s">
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F57" t="s">
         <v>28</v>
@@ -3267,19 +3270,19 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
+        <v>202</v>
+      </c>
+      <c r="D58" t="s">
+        <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
         <v>28</v>
@@ -3287,19 +3290,19 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59">
-        <v>14</v>
+        <v>226</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
         <v>28</v>
@@ -3307,19 +3310,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60">
-        <v>14</v>
+        <v>156</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
         <v>28</v>
@@ -3327,154 +3330,196 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
         <v>221</v>
       </c>
-      <c r="E61" t="s">
-        <v>58</v>
-      </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" t="s">
-        <v>229</v>
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
         <v>228</v>
-      </c>
-      <c r="B64" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
+        <v>213</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67">
-        <v>7</v>
-      </c>
-      <c r="D67">
-        <v>7</v>
+        <v>215</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D68" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D69" t="s">
-        <v>235</v>
+        <v>156</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" t="s">
         <v>233</v>
       </c>
-      <c r="D70" t="s">
-        <v>236</v>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E21" r:id="rId1" xr:uid="{0F6A7096-E599-4EE1-A5A7-9A9045C87B4C}"/>
-    <hyperlink ref="E36" r:id="rId2" xr:uid="{F505DC06-7B75-4DC6-86C9-285FEB7A8293}"/>
+    <hyperlink ref="E38" r:id="rId2" xr:uid="{F505DC06-7B75-4DC6-86C9-285FEB7A8293}"/>
+    <hyperlink ref="E27" r:id="rId3" xr:uid="{06B7BB33-A1CB-44B4-BAFF-B277FA6994D2}"/>
+    <hyperlink ref="E26" r:id="rId4" xr:uid="{84DDBC15-CCAF-4249-80BA-25E6EA07AB5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KA_Data/Original_KA_Data/number_hire_marinas.xlsx
+++ b/KA_Data/Original_KA_Data/number_hire_marinas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22D00B2-F8C8-436E-84D6-AC7C25F2AF77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B91FDB-E39A-460F-8303-54F711363FE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78D5AA05-2575-4285-9D85-FEF2188D93F2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="240">
   <si>
     <t>Hire names</t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>https://www.whitehorsenarrowboats.co.uk/dayhire-cruise-route/</t>
+  </si>
+  <si>
+    <t>https://katrust.org.uk/bruce-branch/</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1125,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,8 +1353,8 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
+      <c r="J6" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="K6" t="s">
         <v>58</v>
@@ -1857,9 +1860,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T11" r:id="rId1" xr:uid="{F8A6DF86-1B18-43C4-AD64-7C605B88FC04}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{8DEFAE21-4681-4393-9EE1-7523D92823E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
